--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126012a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/agressao/cv126012a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>total(1)</t>
   </si>
@@ -25,7 +25,7 @@
     <t>cor ou raça</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>homens</t>
@@ -43,16 +43,10 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -506,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,6 +562,21 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1.31</v>
+      </c>
+      <c r="D5">
+        <v>1.74</v>
+      </c>
+      <c r="E5">
+        <v>2.13</v>
+      </c>
+      <c r="F5">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
@@ -577,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.31</v>
+        <v>4.09</v>
       </c>
       <c r="D6">
-        <v>1.74</v>
+        <v>5.6</v>
       </c>
       <c r="E6">
-        <v>2.13</v>
+        <v>7.47</v>
       </c>
       <c r="F6">
-        <v>1.56</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -597,22 +606,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.09</v>
+        <v>2.92</v>
       </c>
       <c r="D7">
-        <v>5.6</v>
+        <v>4.61</v>
       </c>
       <c r="E7">
-        <v>7.47</v>
+        <v>7.1</v>
       </c>
       <c r="F7">
-        <v>3.71</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="D8">
+        <v>13.91</v>
+      </c>
+      <c r="E8">
+        <v>14.27</v>
+      </c>
+      <c r="F8">
+        <v>7.08</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
@@ -622,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.92</v>
+        <v>7.57</v>
       </c>
       <c r="D9">
-        <v>4.61</v>
+        <v>9.52</v>
       </c>
       <c r="E9">
-        <v>7.1</v>
+        <v>25.34</v>
       </c>
       <c r="F9">
-        <v>1.93</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -642,16 +666,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.039999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="D10">
-        <v>13.91</v>
+        <v>13.87</v>
       </c>
       <c r="E10">
-        <v>14.27</v>
+        <v>26.15</v>
       </c>
       <c r="F10">
-        <v>7.08</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -662,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.57</v>
+        <v>18.57</v>
       </c>
       <c r="D11">
-        <v>9.52</v>
+        <v>17.29</v>
       </c>
       <c r="E11">
-        <v>25.34</v>
+        <v>21.67</v>
       </c>
       <c r="F11">
-        <v>10.26</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -682,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.6</v>
+        <v>4.34</v>
       </c>
       <c r="D12">
-        <v>13.87</v>
+        <v>6.77</v>
       </c>
       <c r="E12">
-        <v>26.15</v>
+        <v>11.47</v>
       </c>
       <c r="F12">
-        <v>5.07</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -702,16 +726,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>18.57</v>
+        <v>12.43</v>
       </c>
       <c r="D13">
-        <v>17.29</v>
+        <v>17.71</v>
       </c>
       <c r="E13">
-        <v>21.67</v>
+        <v>15.91</v>
       </c>
       <c r="F13">
-        <v>11.24</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -722,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.34</v>
+        <v>8.4</v>
       </c>
       <c r="D14">
-        <v>6.77</v>
+        <v>16.54</v>
       </c>
       <c r="E14">
-        <v>11.47</v>
+        <v>24.13</v>
       </c>
       <c r="F14">
-        <v>2.48</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -742,16 +766,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.43</v>
+        <v>2.14</v>
       </c>
       <c r="D15">
-        <v>17.71</v>
+        <v>3.06</v>
       </c>
       <c r="E15">
-        <v>15.91</v>
+        <v>4.78</v>
       </c>
       <c r="F15">
-        <v>6.18</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -762,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.4</v>
+        <v>6.58</v>
       </c>
       <c r="D16">
-        <v>16.54</v>
+        <v>12.16</v>
       </c>
       <c r="E16">
-        <v>24.13</v>
+        <v>15.1</v>
       </c>
       <c r="F16">
-        <v>5.8</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -782,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.14</v>
+        <v>6.23</v>
       </c>
       <c r="D17">
-        <v>3.06</v>
+        <v>9.35</v>
       </c>
       <c r="E17">
-        <v>4.78</v>
+        <v>21.65</v>
       </c>
       <c r="F17">
-        <v>1.58</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -802,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.58</v>
+        <v>4.4</v>
       </c>
       <c r="D18">
-        <v>12.16</v>
+        <v>7.73</v>
       </c>
       <c r="E18">
-        <v>15.1</v>
+        <v>10.73</v>
       </c>
       <c r="F18">
-        <v>5.48</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -822,16 +846,16 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.23</v>
+        <v>6.85</v>
       </c>
       <c r="D19">
-        <v>9.35</v>
+        <v>7.83</v>
       </c>
       <c r="E19">
-        <v>21.65</v>
+        <v>11.78</v>
       </c>
       <c r="F19">
-        <v>4.75</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -842,16 +866,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.4</v>
+        <v>10.74</v>
       </c>
       <c r="D20">
-        <v>7.73</v>
+        <v>11.49</v>
       </c>
       <c r="E20">
-        <v>10.73</v>
+        <v>11.33</v>
       </c>
       <c r="F20">
-        <v>3.47</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -862,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.85</v>
+        <v>4.79</v>
       </c>
       <c r="D21">
-        <v>7.83</v>
+        <v>6.09</v>
       </c>
       <c r="E21">
-        <v>11.78</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="F21">
-        <v>6.07</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -882,16 +906,16 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.74</v>
+        <v>8.4</v>
       </c>
       <c r="D22">
-        <v>11.49</v>
+        <v>13.06</v>
       </c>
       <c r="E22">
-        <v>11.33</v>
+        <v>32.42</v>
       </c>
       <c r="F22">
-        <v>6.68</v>
+        <v>11.44</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -902,16 +926,16 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.79</v>
+        <v>6.89</v>
       </c>
       <c r="D23">
-        <v>6.09</v>
+        <v>14.8</v>
       </c>
       <c r="E23">
-        <v>9.380000000000001</v>
+        <v>29.12</v>
       </c>
       <c r="F23">
-        <v>5.31</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -922,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.4</v>
+        <v>4.06</v>
       </c>
       <c r="D24">
-        <v>13.06</v>
+        <v>5.13</v>
       </c>
       <c r="E24">
-        <v>32.42</v>
+        <v>12.52</v>
       </c>
       <c r="F24">
-        <v>11.44</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -942,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.89</v>
+        <v>2.53</v>
       </c>
       <c r="D25">
-        <v>14.8</v>
+        <v>2.94</v>
       </c>
       <c r="E25">
-        <v>29.12</v>
+        <v>3.1</v>
       </c>
       <c r="F25">
-        <v>7.28</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -962,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>4.06</v>
+        <v>3.93</v>
       </c>
       <c r="D26">
-        <v>5.13</v>
+        <v>4.83</v>
       </c>
       <c r="E26">
-        <v>12.52</v>
+        <v>7.81</v>
       </c>
       <c r="F26">
-        <v>2.47</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -982,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>2.53</v>
+        <v>13.81</v>
       </c>
       <c r="D27">
-        <v>2.94</v>
+        <v>11.77</v>
       </c>
       <c r="E27">
-        <v>3.1</v>
+        <v>13.64</v>
       </c>
       <c r="F27">
-        <v>3.2</v>
+        <v>7.66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1002,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3.93</v>
+        <v>6.58</v>
       </c>
       <c r="D28">
-        <v>4.83</v>
+        <v>6.45</v>
       </c>
       <c r="E28">
-        <v>7.81</v>
+        <v>6.94</v>
       </c>
       <c r="F28">
-        <v>4.55</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1022,16 +1046,16 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>13.81</v>
+        <v>3.7</v>
       </c>
       <c r="D29">
-        <v>11.77</v>
+        <v>4.51</v>
       </c>
       <c r="E29">
-        <v>13.64</v>
+        <v>4.01</v>
       </c>
       <c r="F29">
-        <v>7.66</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1042,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>6.58</v>
+        <v>2.51</v>
       </c>
       <c r="D30">
-        <v>6.45</v>
+        <v>3.82</v>
       </c>
       <c r="E30">
-        <v>6.94</v>
+        <v>2.62</v>
       </c>
       <c r="F30">
-        <v>7.09</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1062,16 +1086,16 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="D31">
-        <v>4.51</v>
+        <v>5.63</v>
       </c>
       <c r="E31">
-        <v>4.01</v>
+        <v>4.24</v>
       </c>
       <c r="F31">
-        <v>5.97</v>
+        <v>9.07</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1082,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>2.51</v>
+        <v>6.1</v>
       </c>
       <c r="D32">
-        <v>3.82</v>
+        <v>8.73</v>
       </c>
       <c r="E32">
-        <v>2.62</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>6.11</v>
+        <v>13.38</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1102,16 +1126,16 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>3.79</v>
+        <v>3.92</v>
       </c>
       <c r="D33">
-        <v>5.63</v>
+        <v>6.38</v>
       </c>
       <c r="E33">
-        <v>4.24</v>
+        <v>4.39</v>
       </c>
       <c r="F33">
-        <v>9.07</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1122,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>6.1</v>
+        <v>3.5</v>
       </c>
       <c r="D34">
-        <v>8.73</v>
+        <v>4.51</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>6.28</v>
       </c>
       <c r="F34">
-        <v>13.38</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1142,16 +1166,16 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>3.92</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D35">
-        <v>6.38</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E35">
-        <v>4.39</v>
+        <v>13.44</v>
       </c>
       <c r="F35">
-        <v>10.53</v>
+        <v>7.92</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1162,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>3.5</v>
+        <v>7.35</v>
       </c>
       <c r="D36">
-        <v>4.51</v>
+        <v>10.49</v>
       </c>
       <c r="E36">
-        <v>6.28</v>
+        <v>15.71</v>
       </c>
       <c r="F36">
-        <v>3.48</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1182,16 +1206,16 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>9.460000000000001</v>
+        <v>4.92</v>
       </c>
       <c r="D37">
-        <v>9.640000000000001</v>
+        <v>6.53</v>
       </c>
       <c r="E37">
-        <v>13.44</v>
+        <v>9.52</v>
       </c>
       <c r="F37">
-        <v>7.92</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1202,55 +1226,15 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>7.35</v>
+        <v>9.52</v>
       </c>
       <c r="D38">
-        <v>10.49</v>
+        <v>12.48</v>
       </c>
       <c r="E38">
-        <v>15.71</v>
+        <v>11.99</v>
       </c>
       <c r="F38">
-        <v>6.98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>4.92</v>
-      </c>
-      <c r="D39">
-        <v>6.53</v>
-      </c>
-      <c r="E39">
-        <v>9.52</v>
-      </c>
-      <c r="F39">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>9.52</v>
-      </c>
-      <c r="D40">
-        <v>12.48</v>
-      </c>
-      <c r="E40">
-        <v>11.99</v>
-      </c>
-      <c r="F40">
         <v>9.51</v>
       </c>
     </row>
